--- a/data.xlsx
+++ b/data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="9" count="9">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="16" count="16">
   <x:si>
     <x:t>Անվանում</x:t>
   </x:si>
@@ -41,6 +41,27 @@
   </x:si>
   <x:si>
     <x:t>Տ-ԻՆԴԱՍԹՐԻ ՓԲԸ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Տ-ՄԵՏԱԼ ՓԲԸ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ՍԵՐՎԻՍՍՏՐՈՅ ՍՊԸ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ՄԵՏԱԼՄՈՆՏԱԺ ՍՊԸ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>«ՏԵՔՍ» ՓԲԸ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>«Տ-ՔՈՄՓԱՆԻ» ՓԲԸ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Տ-ՊԼԱՍՏ ՓԲԸ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ՍՈԼԱՆՈՒՄ ՓԲԸ</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -425,7 +446,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B2" s="0" t="n">
-        <x:v>981002</x:v>
+        <x:v>651002</x:v>
       </x:c>
       <x:c r="C2" s="0" t="n">
         <x:v>0</x:v>
@@ -459,7 +480,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="B4" s="0" t="n">
-        <x:v>15666.7</x:v>
+        <x:v>5801306.7</x:v>
       </x:c>
       <x:c r="C4" s="0" t="n">
         <x:v>0</x:v>
@@ -476,7 +497,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="B5" s="0" t="n">
-        <x:v>1142159.3</x:v>
+        <x:v>962159.3</x:v>
       </x:c>
       <x:c r="C5" s="0" t="n">
         <x:v>0</x:v>
@@ -485,6 +506,125 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="E5" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:5">
+      <x:c r="A6" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="B6" s="0" t="n">
+        <x:v>486707.6</x:v>
+      </x:c>
+      <x:c r="C6" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D6" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="E6" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:5">
+      <x:c r="A7" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="B7" s="0" t="n">
+        <x:v>21926.1</x:v>
+      </x:c>
+      <x:c r="C7" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D7" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="E7" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:5">
+      <x:c r="A8" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="B8" s="0" t="n">
+        <x:v>16019.8</x:v>
+      </x:c>
+      <x:c r="C8" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D8" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="E8" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:5">
+      <x:c r="A9" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="B9" s="0" t="n">
+        <x:v>38845.9</x:v>
+      </x:c>
+      <x:c r="C9" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D9" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="E9" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:5">
+      <x:c r="A10" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="B10" s="0" t="n">
+        <x:v>75573.5</x:v>
+      </x:c>
+      <x:c r="C10" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D10" s="0" t="n">
+        <x:v>33751.82</x:v>
+      </x:c>
+      <x:c r="E10" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:5">
+      <x:c r="A11" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="B11" s="0" t="n">
+        <x:v>57935.5</x:v>
+      </x:c>
+      <x:c r="C11" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D11" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="E11" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:5">
+      <x:c r="A12" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="B12" s="0" t="n">
+        <x:v>20755</x:v>
+      </x:c>
+      <x:c r="C12" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D12" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="E12" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
     </x:row>

--- a/data.xlsx
+++ b/data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="16" count="16">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="6" count="6">
   <x:si>
     <x:t>Անվանում</x:t>
   </x:si>
@@ -31,37 +31,7 @@
     <x:t>EUR</x:t>
   </x:si>
   <x:si>
-    <x:t>ՏԱՇԻՐ-ԿԱՐ ՓԲԸ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Տ-ԷԼԵԿՏՐՈ ՓԲԸ</x:t>
-  </x:si>
-  <x:si>
     <x:t>«ՏԵՖՖԻ» ՓԲԸ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Տ-ԻՆԴԱՍԹՐԻ ՓԲԸ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Տ-ՄԵՏԱԼ ՓԲԸ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ՍԵՐՎԻՍՍՏՐՈՅ ՍՊԸ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ՄԵՏԱԼՄՈՆՏԱԺ ՍՊԸ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>«ՏԵՔՍ» ՓԲԸ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>«Տ-ՔՈՄՓԱՆԻ» ՓԲԸ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Տ-ՊԼԱՍՏ ՓԲԸ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ՍՈԼԱՆՈՒՄ ՓԲԸ</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -446,185 +416,15 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B2" s="0" t="n">
-        <x:v>651002</x:v>
+        <x:v>43403.2</x:v>
       </x:c>
       <x:c r="C2" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="D2" s="0" t="n">
-        <x:v>0.01</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E2" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="3" spans="1:5">
-      <x:c r="A3" s="0" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="B3" s="0" t="n">
-        <x:v>597873.1000000001</x:v>
-      </x:c>
-      <x:c r="C3" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="D3" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="E3" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="4" spans="1:5">
-      <x:c r="A4" s="0" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="B4" s="0" t="n">
-        <x:v>5801306.7</x:v>
-      </x:c>
-      <x:c r="C4" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="D4" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="E4" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="5" spans="1:5">
-      <x:c r="A5" s="0" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="B5" s="0" t="n">
-        <x:v>962159.3</x:v>
-      </x:c>
-      <x:c r="C5" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="D5" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="E5" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="6" spans="1:5">
-      <x:c r="A6" s="0" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="B6" s="0" t="n">
-        <x:v>486707.6</x:v>
-      </x:c>
-      <x:c r="C6" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="D6" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="E6" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="7" spans="1:5">
-      <x:c r="A7" s="0" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="B7" s="0" t="n">
-        <x:v>21926.1</x:v>
-      </x:c>
-      <x:c r="C7" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="D7" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="E7" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="8" spans="1:5">
-      <x:c r="A8" s="0" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="B8" s="0" t="n">
-        <x:v>16019.8</x:v>
-      </x:c>
-      <x:c r="C8" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="D8" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="E8" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="9" spans="1:5">
-      <x:c r="A9" s="0" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="B9" s="0" t="n">
-        <x:v>38845.9</x:v>
-      </x:c>
-      <x:c r="C9" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="D9" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="E9" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="10" spans="1:5">
-      <x:c r="A10" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="B10" s="0" t="n">
-        <x:v>75573.5</x:v>
-      </x:c>
-      <x:c r="C10" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="D10" s="0" t="n">
-        <x:v>33751.82</x:v>
-      </x:c>
-      <x:c r="E10" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="11" spans="1:5">
-      <x:c r="A11" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="B11" s="0" t="n">
-        <x:v>57935.5</x:v>
-      </x:c>
-      <x:c r="C11" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="D11" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="E11" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="12" spans="1:5">
-      <x:c r="A12" s="0" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="B12" s="0" t="n">
-        <x:v>20755</x:v>
-      </x:c>
-      <x:c r="C12" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="D12" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="E12" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
     </x:row>

--- a/data.xlsx
+++ b/data.xlsx
@@ -446,7 +446,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B2" s="0" t="n">
-        <x:v>651002</x:v>
+        <x:v>653605.3</x:v>
       </x:c>
       <x:c r="C2" s="0" t="n">
         <x:v>0</x:v>
@@ -463,7 +463,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B3" s="0" t="n">
-        <x:v>597873.1000000001</x:v>
+        <x:v>598236.6000000001</x:v>
       </x:c>
       <x:c r="C3" s="0" t="n">
         <x:v>0</x:v>
@@ -480,7 +480,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="B4" s="0" t="n">
-        <x:v>5801306.7</x:v>
+        <x:v>784830.8</x:v>
       </x:c>
       <x:c r="C4" s="0" t="n">
         <x:v>0</x:v>
@@ -497,7 +497,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="B5" s="0" t="n">
-        <x:v>962159.3</x:v>
+        <x:v>962786.7</x:v>
       </x:c>
       <x:c r="C5" s="0" t="n">
         <x:v>0</x:v>
@@ -514,7 +514,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B6" s="0" t="n">
-        <x:v>486707.6</x:v>
+        <x:v>486996.9</x:v>
       </x:c>
       <x:c r="C6" s="0" t="n">
         <x:v>0</x:v>
@@ -531,7 +531,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B7" s="0" t="n">
-        <x:v>21926.1</x:v>
+        <x:v>21943.6</x:v>
       </x:c>
       <x:c r="C7" s="0" t="n">
         <x:v>0</x:v>
@@ -548,7 +548,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="B8" s="0" t="n">
-        <x:v>16019.8</x:v>
+        <x:v>16033.8</x:v>
       </x:c>
       <x:c r="C8" s="0" t="n">
         <x:v>0</x:v>
@@ -565,7 +565,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="B9" s="0" t="n">
-        <x:v>38845.9</x:v>
+        <x:v>38871.6</x:v>
       </x:c>
       <x:c r="C9" s="0" t="n">
         <x:v>0</x:v>
@@ -582,13 +582,13 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="B10" s="0" t="n">
-        <x:v>75573.5</x:v>
+        <x:v>75643.7</x:v>
       </x:c>
       <x:c r="C10" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="D10" s="0" t="n">
-        <x:v>33751.82</x:v>
+        <x:v>633751.82</x:v>
       </x:c>
       <x:c r="E10" s="0" t="n">
         <x:v>0</x:v>
@@ -599,7 +599,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="B11" s="0" t="n">
-        <x:v>57935.5</x:v>
+        <x:v>57957.4</x:v>
       </x:c>
       <x:c r="C11" s="0" t="n">
         <x:v>0</x:v>
@@ -616,7 +616,7 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="B12" s="0" t="n">
-        <x:v>20755</x:v>
+        <x:v>20986.1</x:v>
       </x:c>
       <x:c r="C12" s="0" t="n">
         <x:v>0</x:v>
